--- a/i_test/test_D3_selection_criteria_from_PERSONS_to_persons_with_MoI/D3_PERSONS.xlsx
+++ b/i_test/test_D3_selection_criteria_from_PERSONS_to_persons_with_MoI/D3_PERSONS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>person_id</t>
   </si>
@@ -27,9 +27,6 @@
     <t>gender</t>
   </si>
   <si>
-    <t>birthdate</t>
-  </si>
-  <si>
     <t>P01</t>
   </si>
   <si>
@@ -46,6 +43,12 @@
   </si>
   <si>
     <t>P04</t>
+  </si>
+  <si>
+    <t>birth_date</t>
+  </si>
+  <si>
+    <t>death_date</t>
   </si>
 </sst>
 </file>
@@ -401,15 +404,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -417,48 +420,54 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="C2" s="3">
         <v>-50000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="C3" s="2">
         <v>-50000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2"/>
+      <c r="D5">
+        <v>1000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
